--- a/2018.04.27. Рабочий компьютер.xlsx
+++ b/2018.04.27. Рабочий компьютер.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mv.savenkov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mv.savenkov\Desktop\comps\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
@@ -369,6 +369,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -400,12 +406,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -749,7 +749,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13:S13"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -768,28 +768,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="J1" s="31" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
+      <c r="J1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="33"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="35"/>
     </row>
     <row r="2" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -896,7 +896,7 @@
       <c r="Q3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="42" t="s">
+      <c r="R3" s="31" t="s">
         <v>39</v>
       </c>
       <c r="S3" s="2"/>
@@ -1056,7 +1056,9 @@
       <c r="Q6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="25"/>
+      <c r="R6" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="25" t="s">
         <v>37</v>
       </c>
@@ -1256,7 +1258,7 @@
       <c r="O10" s="14">
         <v>350</v>
       </c>
-      <c r="P10" s="43">
+      <c r="P10" s="32">
         <v>290</v>
       </c>
       <c r="Q10" s="30" t="s">
@@ -1298,48 +1300,48 @@
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="37">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="39">
         <f>SUM(D10,D9,D8,G7,H6,D5,D4,D3)</f>
         <v>38589</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
-      <c r="J12" s="40" t="s">
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
+      <c r="J12" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="37">
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="39">
         <f>SUM(P9:P10,N7:N8,P6,N5,P3:P4)</f>
         <v>35820</v>
       </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="39"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="41"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="36"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="38"/>
     </row>
     <row r="16" spans="1:19" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J16" s="23"/>
